--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
+    <sheet name="naca97-10deg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +46,42 @@
   <si>
     <t>deg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         LIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         DRAG</t>
+  </si>
+  <si>
+    <t>LIFT(SURF-STRESS)</t>
+  </si>
+  <si>
+    <t>DRAG(SURF-STRESS)</t>
+  </si>
+  <si>
+    <t>LIFT(PRESSURE)</t>
+  </si>
+  <si>
+    <t>DRAG(PRESSURE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LRGN[Rwing]</t>
   </si>
 </sst>
 </file>
@@ -75,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,66 +136,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,63 +435,83 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="1">
+        <v>-0.45743899999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.65106200000000003</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="1">
+        <v>-4.14351</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-4.7826899999999997</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="1">
+        <f>C5/C4</f>
+        <v>9.0580602003764437</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F6" si="0">D5/D4</f>
+        <v>7.3459824102773617</v>
+      </c>
+      <c r="E6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -510,4 +522,256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2008299999999998</v>
+      </c>
+      <c r="D3">
+        <v>-2.0578799999999999</v>
+      </c>
+      <c r="E3">
+        <v>-25.3018</v>
+      </c>
+      <c r="F3">
+        <v>-0.73481600000000002</v>
+      </c>
+      <c r="G3">
+        <v>5.2858899999999997E-3</v>
+      </c>
+      <c r="H3">
+        <v>-2.7927</v>
+      </c>
+      <c r="I3">
+        <v>-25.296500000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.45743899999999998</v>
+      </c>
+      <c r="K3">
+        <v>-4.14351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7646099999999998</v>
+      </c>
+      <c r="D3">
+        <v>-6.5348199999999999</v>
+      </c>
+      <c r="E3">
+        <v>-54.792999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.917211</v>
+      </c>
+      <c r="G3">
+        <v>5.0497300000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>-7.4520299999999997</v>
+      </c>
+      <c r="I3">
+        <v>-54.7425</v>
+      </c>
+      <c r="J3">
+        <v>-0.65106200000000003</v>
+      </c>
+      <c r="K3">
+        <v>-4.7826899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
     <sheet name="naca97-10deg" sheetId="3" r:id="rId3"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId4"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId5"/>
+    <sheet name="calc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +86,91 @@
   <si>
     <t xml:space="preserve">    LRGN[Rwing]</t>
   </si>
+  <si>
+    <t>緒元</t>
+    <rPh sb="0" eb="2">
+      <t>ショゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気密度</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kg/m3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表流速</t>
+    <rPh sb="0" eb="2">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リュウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1馬力[日本]</t>
+    <rPh sb="1" eb="3">
+      <t>バリキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LRGN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAG(SURF-STRESS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L/D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抗力[N]</t>
+    <rPh sb="0" eb="2">
+      <t>コウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揚力[N]</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬力[損失]</t>
+    <rPh sb="0" eb="2">
+      <t>バリキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -105,15 +193,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,13 +236,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +287,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,67 +593,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>-0.45743899999999998</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>-0.65106200000000003</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="1">
+        <v>-0.76434800000000003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.97788399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>-4.14351</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>-4.7826899999999997</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="1">
+        <v>-3.49641</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -500,23 +681,31 @@
         <f>C5/C4</f>
         <v>9.0580602003764437</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:F6" si="0">D5/D4</f>
+      <c r="D6" s="1" t="e">
+        <f t="shared" ref="D6:H6" si="0">D5/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
         <v>7.3459824102773617</v>
       </c>
-      <c r="E6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F6" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5743692663551156</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0859631612747522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,6 +844,133 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.53428704000000005</v>
+      </c>
+      <c r="D3">
+        <v>-6.5348199999999999</v>
+      </c>
+      <c r="E3">
+        <v>-54.792999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.917211</v>
+      </c>
+      <c r="G3">
+        <v>5.0497300000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>-7.4520299999999997</v>
+      </c>
+      <c r="I3">
+        <v>-54.7425</v>
+      </c>
+      <c r="J3">
+        <v>-0.65106200000000003</v>
+      </c>
+      <c r="K3">
+        <v>-4.7826899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -708,31 +1024,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7646099999999998</v>
+        <v>2.7642899999999999</v>
       </c>
       <c r="D3">
-        <v>-6.5348199999999999</v>
+        <v>-12.1792</v>
       </c>
       <c r="E3">
-        <v>-54.792999999999999</v>
+        <v>-59.284100000000002</v>
       </c>
       <c r="F3">
-        <v>-0.917211</v>
+        <v>-0.76737599999999995</v>
       </c>
       <c r="G3">
-        <v>5.0497300000000002E-2</v>
+        <v>6.1758199999999999E-2</v>
       </c>
       <c r="H3">
-        <v>-7.4520299999999997</v>
+        <v>-12.9465</v>
       </c>
       <c r="I3">
-        <v>-54.7425</v>
+        <v>-59.222299999999997</v>
       </c>
       <c r="J3">
-        <v>-0.65106200000000003</v>
+        <v>-0.76434800000000003</v>
       </c>
       <c r="K3">
-        <v>-4.7826899999999997</v>
+        <v>-3.49641</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -774,4 +1090,3142 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.206</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>735.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.53428704000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-6.5348199999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-54.792999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-0.917211</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.0497300000000002E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-7.4520299999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-54.7425</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-0.65106200000000003</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-4.7826899999999997</v>
+      </c>
+      <c r="M9" s="5">
+        <f>L9/K9</f>
+        <v>7.3459824102773617</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ref="N9:O40" si="0">0.5*K9*$C$3*($C$4^2)*$D9</f>
+        <v>-25.380470587476093</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>-186.44449050016129</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ref="P9:P72" si="1">N9*C$4/750</f>
+        <v>-0.37224690194964938</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="e">
+        <f t="shared" ref="M10:M73" si="2">L10/K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5" t="e">
+        <f>L18/K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" ref="N41:O72" si="3">0.5*K41*$C$3*($C$4^2)*$D41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N68" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N73" s="5">
+        <f t="shared" ref="N73:O107" si="4">0.5*K73*$C$3*($C$4^2)*$D73</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="5">
+        <f t="shared" ref="P73:P107" si="5">N73*C$4/750</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="5" t="e">
+        <f t="shared" ref="M74:M107" si="6">L74/K74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N74" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N75" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N76" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N77" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N79" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N80" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N81" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N82" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N83" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N84" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N85" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N86" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N87" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N88" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N89" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N90" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N91" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N92" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N93" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N94" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N95" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N96" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N98" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N99" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N100" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N101" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N102" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N103" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N104" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N105" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N106" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N107" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
-    <sheet name="naca97-10deg" sheetId="3" r:id="rId3"/>
-    <sheet name="naca97-20deg" sheetId="4" r:id="rId4"/>
-    <sheet name="naca97-30deg" sheetId="5" r:id="rId5"/>
-    <sheet name="calc" sheetId="6" r:id="rId6"/>
+    <sheet name="naca97-5deg" sheetId="7" r:id="rId3"/>
+    <sheet name="naca97-10deg" sheetId="3" r:id="rId4"/>
+    <sheet name="naca97-15deg" sheetId="8" r:id="rId5"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId6"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId7"/>
+    <sheet name="calc" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -213,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,50 +238,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,15 +267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +552,7 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -605,14 +561,14 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
@@ -642,11 +598,15 @@
       <c r="C4" s="1">
         <v>-0.45743899999999998</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>-0.54264000000000001</v>
+      </c>
       <c r="E4" s="1">
         <v>-0.65106200000000003</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>-0.73846299999999998</v>
+      </c>
       <c r="G4" s="1">
         <v>-0.76434800000000003</v>
       </c>
@@ -661,11 +621,15 @@
       <c r="C5" s="1">
         <v>-4.14351</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>-4.5626600000000002</v>
+      </c>
       <c r="E5" s="1">
         <v>-4.7826899999999997</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>-4.4160399999999997</v>
+      </c>
       <c r="G5" s="1">
         <v>-3.49641</v>
       </c>
@@ -681,17 +645,17 @@
         <f>C5/C4</f>
         <v>9.0580602003764437</v>
       </c>
-      <c r="D6" s="1" t="e">
+      <c r="D6" s="1">
         <f t="shared" ref="D6:H6" si="0">D5/D4</f>
-        <v>#DIV/0!</v>
+        <v>8.4082633053221283</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>7.3459824102773617</v>
       </c>
-      <c r="F6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.980042331166219</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -844,6 +808,132 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2007300000000001</v>
+      </c>
+      <c r="D3">
+        <v>-3.9051</v>
+      </c>
+      <c r="E3">
+        <v>-39.411700000000003</v>
+      </c>
+      <c r="F3">
+        <v>-0.77860799999999997</v>
+      </c>
+      <c r="G3">
+        <v>2.99682E-2</v>
+      </c>
+      <c r="H3">
+        <v>-4.6837</v>
+      </c>
+      <c r="I3">
+        <v>-39.381799999999998</v>
+      </c>
+      <c r="J3">
+        <v>-0.54264000000000001</v>
+      </c>
+      <c r="K3">
+        <v>-4.5626600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
@@ -963,132 +1053,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.7642899999999999</v>
-      </c>
-      <c r="D3">
-        <v>-12.1792</v>
-      </c>
-      <c r="E3">
-        <v>-59.284100000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.76737599999999995</v>
-      </c>
-      <c r="G3">
-        <v>6.1758199999999999E-2</v>
-      </c>
-      <c r="H3">
-        <v>-12.9465</v>
-      </c>
-      <c r="I3">
-        <v>-59.222299999999997</v>
-      </c>
-      <c r="J3">
-        <v>-0.76434800000000003</v>
-      </c>
-      <c r="K3">
-        <v>-3.49641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1150,31 +1114,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7644000000000002</v>
+        <v>2.2002299999999999</v>
       </c>
       <c r="D3">
-        <v>-21.236899999999999</v>
+        <v>-9.5853699999999993</v>
       </c>
       <c r="E3">
-        <v>-45.665100000000002</v>
+        <v>-61.939500000000002</v>
       </c>
       <c r="F3">
-        <v>-0.62004300000000001</v>
+        <v>-0.76220600000000005</v>
       </c>
       <c r="G3">
-        <v>7.2169399999999995E-2</v>
+        <v>6.0589200000000003E-2</v>
       </c>
       <c r="H3">
-        <v>-21.856999999999999</v>
+        <v>-10.3476</v>
       </c>
       <c r="I3">
-        <v>-45.5929</v>
+        <v>-61.878900000000002</v>
       </c>
       <c r="J3">
-        <v>-0.97788399999999998</v>
+        <v>-0.73846299999999998</v>
       </c>
       <c r="K3">
-        <v>-2.0398299999999998</v>
+        <v>-4.4160399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -1219,6 +1183,258 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7642899999999999</v>
+      </c>
+      <c r="D3">
+        <v>-12.1792</v>
+      </c>
+      <c r="E3">
+        <v>-59.284100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.76737599999999995</v>
+      </c>
+      <c r="G3">
+        <v>6.1758199999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>-12.9465</v>
+      </c>
+      <c r="I3">
+        <v>-59.222299999999997</v>
+      </c>
+      <c r="J3">
+        <v>-0.76434800000000003</v>
+      </c>
+      <c r="K3">
+        <v>-3.49641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>

--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
     <sheet name="naca97-5deg" sheetId="7" r:id="rId3"/>
-    <sheet name="naca97-10deg" sheetId="3" r:id="rId4"/>
-    <sheet name="naca97-15deg" sheetId="8" r:id="rId5"/>
-    <sheet name="naca97-20deg" sheetId="4" r:id="rId6"/>
-    <sheet name="naca97-30deg" sheetId="5" r:id="rId7"/>
-    <sheet name="calc" sheetId="6" r:id="rId8"/>
+    <sheet name="naca97-8deg" sheetId="9" r:id="rId4"/>
+    <sheet name="naca97-10deg" sheetId="3" r:id="rId5"/>
+    <sheet name="naca97-15deg" sheetId="8" r:id="rId6"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId7"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId8"/>
+    <sheet name="calc" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -244,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +265,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -549,16 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -569,9 +573,11 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -579,19 +585,25 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,19 +614,23 @@
         <v>-0.54264000000000001</v>
       </c>
       <c r="E4" s="1">
+        <v>-0.612487</v>
+      </c>
+      <c r="F4" s="1">
         <v>-0.65106200000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>-0.73846299999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>-0.76434800000000003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>-0.97788399999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,19 +641,23 @@
         <v>-4.5626600000000002</v>
       </c>
       <c r="E5" s="1">
+        <v>-4.64269</v>
+      </c>
+      <c r="F5" s="1">
         <v>-4.7826899999999997</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
         <v>-4.4160399999999997</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>-3.49641</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>-2.0398299999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -646,30 +666,37 @@
         <v>9.0580602003764437</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:H6" si="0">D5/D4</f>
+        <f t="shared" ref="D6:J6" si="0">D5/D4</f>
         <v>8.4082633053221283</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
+        <v>7.5800629237845047</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>7.3459824102773617</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>5.980042331166219</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>4.5743692663551156</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>2.0859631612747522</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,6 +961,132 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2005699999999999</v>
+      </c>
+      <c r="D3">
+        <v>-5.4670500000000004</v>
+      </c>
+      <c r="E3">
+        <v>-47.461100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.78847400000000001</v>
+      </c>
+      <c r="G3">
+        <v>4.3745800000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>-6.2555300000000003</v>
+      </c>
+      <c r="I3">
+        <v>-47.417299999999997</v>
+      </c>
+      <c r="J3">
+        <v>-0.612487</v>
+      </c>
+      <c r="K3">
+        <v>-4.64269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
@@ -1053,132 +1206,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2002299999999999</v>
-      </c>
-      <c r="D3">
-        <v>-9.5853699999999993</v>
-      </c>
-      <c r="E3">
-        <v>-61.939500000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.76220600000000005</v>
-      </c>
-      <c r="G3">
-        <v>6.0589200000000003E-2</v>
-      </c>
-      <c r="H3">
-        <v>-10.3476</v>
-      </c>
-      <c r="I3">
-        <v>-61.878900000000002</v>
-      </c>
-      <c r="J3">
-        <v>-0.73846299999999998</v>
-      </c>
-      <c r="K3">
-        <v>-4.4160399999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1240,31 +1267,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7642899999999999</v>
+        <v>2.2002299999999999</v>
       </c>
       <c r="D3">
-        <v>-12.1792</v>
+        <v>-9.5853699999999993</v>
       </c>
       <c r="E3">
-        <v>-59.284100000000002</v>
+        <v>-61.939500000000002</v>
       </c>
       <c r="F3">
-        <v>-0.76737599999999995</v>
+        <v>-0.76220600000000005</v>
       </c>
       <c r="G3">
-        <v>6.1758199999999999E-2</v>
+        <v>6.0589200000000003E-2</v>
       </c>
       <c r="H3">
-        <v>-12.9465</v>
+        <v>-10.3476</v>
       </c>
       <c r="I3">
-        <v>-59.222299999999997</v>
+        <v>-61.878900000000002</v>
       </c>
       <c r="J3">
-        <v>-0.76434800000000003</v>
+        <v>-0.73846299999999998</v>
       </c>
       <c r="K3">
-        <v>-3.49641</v>
+        <v>-4.4160399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -1366,31 +1393,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7644000000000002</v>
+        <v>2.7642899999999999</v>
       </c>
       <c r="D3">
-        <v>-21.236899999999999</v>
+        <v>-12.1792</v>
       </c>
       <c r="E3">
-        <v>-45.665100000000002</v>
+        <v>-59.284100000000002</v>
       </c>
       <c r="F3">
-        <v>-0.62004300000000001</v>
+        <v>-0.76737599999999995</v>
       </c>
       <c r="G3">
-        <v>7.2169399999999995E-2</v>
+        <v>6.1758199999999999E-2</v>
       </c>
       <c r="H3">
-        <v>-21.856999999999999</v>
+        <v>-12.9465</v>
       </c>
       <c r="I3">
-        <v>-45.5929</v>
+        <v>-59.222299999999997</v>
       </c>
       <c r="J3">
-        <v>-0.97788399999999998</v>
+        <v>-0.76434800000000003</v>
       </c>
       <c r="K3">
-        <v>-2.0398299999999998</v>
+        <v>-3.49641</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -1435,6 +1462,132 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>

--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="naca97-5deg" sheetId="7" r:id="rId3"/>
     <sheet name="naca97-8deg" sheetId="9" r:id="rId4"/>
     <sheet name="naca97-10deg" sheetId="3" r:id="rId5"/>
-    <sheet name="naca97-15deg" sheetId="8" r:id="rId6"/>
-    <sheet name="naca97-20deg" sheetId="4" r:id="rId7"/>
-    <sheet name="naca97-30deg" sheetId="5" r:id="rId8"/>
-    <sheet name="calc" sheetId="6" r:id="rId9"/>
+    <sheet name="naca97-12deg" sheetId="10" r:id="rId6"/>
+    <sheet name="naca97-15deg" sheetId="8" r:id="rId7"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId8"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId9"/>
+    <sheet name="calc" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -216,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,13 +240,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,10 +306,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,31 +597,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -588,22 +634,28 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,21 +668,25 @@
       <c r="E4" s="1">
         <v>-0.612487</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>-0.65106200000000003</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>-0.70048699999999997</v>
+      </c>
+      <c r="J4" s="1">
         <v>-0.73846299999999998</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>-0.76434800000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>-0.97788399999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,21 +699,25 @@
       <c r="E5" s="1">
         <v>-4.64269</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>-4.7826899999999997</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>-4.61069</v>
+      </c>
+      <c r="J5" s="1">
         <v>-4.4160399999999997</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>-3.49641</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>-2.0398299999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,30 +726,38 @@
         <v>9.0580602003764437</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="0">D5/D4</f>
+        <f t="shared" ref="D6:L6" si="0">D5/D4</f>
         <v>8.4082633053221283</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>7.5800629237845047</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>7.3459824102773617</v>
       </c>
-      <c r="G6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5821207245816131</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>5.980042331166219</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>4.5743692663551156</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>2.0859631612747522</v>
       </c>
@@ -704,890 +772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2008299999999998</v>
-      </c>
-      <c r="D3">
-        <v>-2.0578799999999999</v>
-      </c>
-      <c r="E3">
-        <v>-25.3018</v>
-      </c>
-      <c r="F3">
-        <v>-0.73481600000000002</v>
-      </c>
-      <c r="G3">
-        <v>5.2858899999999997E-3</v>
-      </c>
-      <c r="H3">
-        <v>-2.7927</v>
-      </c>
-      <c r="I3">
-        <v>-25.296500000000002</v>
-      </c>
-      <c r="J3">
-        <v>-0.45743899999999998</v>
-      </c>
-      <c r="K3">
-        <v>-4.14351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2007300000000001</v>
-      </c>
-      <c r="D3">
-        <v>-3.9051</v>
-      </c>
-      <c r="E3">
-        <v>-39.411700000000003</v>
-      </c>
-      <c r="F3">
-        <v>-0.77860799999999997</v>
-      </c>
-      <c r="G3">
-        <v>2.99682E-2</v>
-      </c>
-      <c r="H3">
-        <v>-4.6837</v>
-      </c>
-      <c r="I3">
-        <v>-39.381799999999998</v>
-      </c>
-      <c r="J3">
-        <v>-0.54264000000000001</v>
-      </c>
-      <c r="K3">
-        <v>-4.5626600000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2005699999999999</v>
-      </c>
-      <c r="D3">
-        <v>-5.4670500000000004</v>
-      </c>
-      <c r="E3">
-        <v>-47.461100000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.78847400000000001</v>
-      </c>
-      <c r="G3">
-        <v>4.3745800000000001E-2</v>
-      </c>
-      <c r="H3">
-        <v>-6.2555300000000003</v>
-      </c>
-      <c r="I3">
-        <v>-47.417299999999997</v>
-      </c>
-      <c r="J3">
-        <v>-0.612487</v>
-      </c>
-      <c r="K3">
-        <v>-4.64269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.53428704000000005</v>
-      </c>
-      <c r="D3">
-        <v>-6.5348199999999999</v>
-      </c>
-      <c r="E3">
-        <v>-54.792999999999999</v>
-      </c>
-      <c r="F3">
-        <v>-0.917211</v>
-      </c>
-      <c r="G3">
-        <v>5.0497300000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>-7.4520299999999997</v>
-      </c>
-      <c r="I3">
-        <v>-54.7425</v>
-      </c>
-      <c r="J3">
-        <v>-0.65106200000000003</v>
-      </c>
-      <c r="K3">
-        <v>-4.7826899999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2002299999999999</v>
-      </c>
-      <c r="D3">
-        <v>-9.5853699999999993</v>
-      </c>
-      <c r="E3">
-        <v>-61.939500000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.76220600000000005</v>
-      </c>
-      <c r="G3">
-        <v>6.0589200000000003E-2</v>
-      </c>
-      <c r="H3">
-        <v>-10.3476</v>
-      </c>
-      <c r="I3">
-        <v>-61.878900000000002</v>
-      </c>
-      <c r="J3">
-        <v>-0.73846299999999998</v>
-      </c>
-      <c r="K3">
-        <v>-4.4160399999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.7642899999999999</v>
-      </c>
-      <c r="D3">
-        <v>-12.1792</v>
-      </c>
-      <c r="E3">
-        <v>-59.284100000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.76737599999999995</v>
-      </c>
-      <c r="G3">
-        <v>6.1758199999999999E-2</v>
-      </c>
-      <c r="H3">
-        <v>-12.9465</v>
-      </c>
-      <c r="I3">
-        <v>-59.222299999999997</v>
-      </c>
-      <c r="J3">
-        <v>-0.76434800000000003</v>
-      </c>
-      <c r="K3">
-        <v>-3.49641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.7644000000000002</v>
-      </c>
-      <c r="D3">
-        <v>-21.236899999999999</v>
-      </c>
-      <c r="E3">
-        <v>-45.665100000000002</v>
-      </c>
-      <c r="F3">
-        <v>-0.62004300000000001</v>
-      </c>
-      <c r="G3">
-        <v>7.2169399999999995E-2</v>
-      </c>
-      <c r="H3">
-        <v>-21.856999999999999</v>
-      </c>
-      <c r="I3">
-        <v>-45.5929</v>
-      </c>
-      <c r="J3">
-        <v>-0.97788399999999998</v>
-      </c>
-      <c r="K3">
-        <v>-2.0398299999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>
@@ -4597,4 +3782,1013 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2008299999999998</v>
+      </c>
+      <c r="D3">
+        <v>-2.0578799999999999</v>
+      </c>
+      <c r="E3">
+        <v>-25.3018</v>
+      </c>
+      <c r="F3">
+        <v>-0.73481600000000002</v>
+      </c>
+      <c r="G3">
+        <v>5.2858899999999997E-3</v>
+      </c>
+      <c r="H3">
+        <v>-2.7927</v>
+      </c>
+      <c r="I3">
+        <v>-25.296500000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.45743899999999998</v>
+      </c>
+      <c r="K3">
+        <v>-4.14351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2007300000000001</v>
+      </c>
+      <c r="D3">
+        <v>-3.9051</v>
+      </c>
+      <c r="E3">
+        <v>-39.411700000000003</v>
+      </c>
+      <c r="F3">
+        <v>-0.77860799999999997</v>
+      </c>
+      <c r="G3">
+        <v>2.99682E-2</v>
+      </c>
+      <c r="H3">
+        <v>-4.6837</v>
+      </c>
+      <c r="I3">
+        <v>-39.381799999999998</v>
+      </c>
+      <c r="J3">
+        <v>-0.54264000000000001</v>
+      </c>
+      <c r="K3">
+        <v>-4.5626600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2005699999999999</v>
+      </c>
+      <c r="D3">
+        <v>-5.4670500000000004</v>
+      </c>
+      <c r="E3">
+        <v>-47.461100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.78847400000000001</v>
+      </c>
+      <c r="G3">
+        <v>4.3745800000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>-6.2555300000000003</v>
+      </c>
+      <c r="I3">
+        <v>-47.417299999999997</v>
+      </c>
+      <c r="J3">
+        <v>-0.612487</v>
+      </c>
+      <c r="K3">
+        <v>-4.64269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.53428704000000005</v>
+      </c>
+      <c r="D3">
+        <v>-6.5348199999999999</v>
+      </c>
+      <c r="E3">
+        <v>-54.792999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.917211</v>
+      </c>
+      <c r="G3">
+        <v>5.0497300000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>-7.4520299999999997</v>
+      </c>
+      <c r="I3">
+        <v>-54.7425</v>
+      </c>
+      <c r="J3">
+        <v>-0.65106200000000003</v>
+      </c>
+      <c r="K3">
+        <v>-4.7826899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2004199999999998</v>
+      </c>
+      <c r="D3">
+        <v>-7.8860900000000003</v>
+      </c>
+      <c r="E3">
+        <v>-57.124899999999997</v>
+      </c>
+      <c r="F3">
+        <v>-0.78408500000000003</v>
+      </c>
+      <c r="G3">
+        <v>5.6764700000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>-8.6701800000000002</v>
+      </c>
+      <c r="I3">
+        <v>-57.068199999999997</v>
+      </c>
+      <c r="J3">
+        <v>-0.70048699999999997</v>
+      </c>
+      <c r="K3">
+        <v>-4.61069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2002299999999999</v>
+      </c>
+      <c r="D3">
+        <v>-9.5853699999999993</v>
+      </c>
+      <c r="E3">
+        <v>-61.939500000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.76220600000000005</v>
+      </c>
+      <c r="G3">
+        <v>6.0589200000000003E-2</v>
+      </c>
+      <c r="H3">
+        <v>-10.3476</v>
+      </c>
+      <c r="I3">
+        <v>-61.878900000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.73846299999999998</v>
+      </c>
+      <c r="K3">
+        <v>-4.4160399999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7642899999999999</v>
+      </c>
+      <c r="D3">
+        <v>-12.1792</v>
+      </c>
+      <c r="E3">
+        <v>-59.284100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.76737599999999995</v>
+      </c>
+      <c r="G3">
+        <v>6.1758199999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>-12.9465</v>
+      </c>
+      <c r="I3">
+        <v>-59.222299999999997</v>
+      </c>
+      <c r="J3">
+        <v>-0.76434800000000003</v>
+      </c>
+      <c r="K3">
+        <v>-3.49641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
+++ b/CAD/Inventor/Aero Parts/R-wing/type7-naca97/解析用/データシート.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="19560" windowHeight="8055"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="19560" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="naca97-0deg" sheetId="2" r:id="rId2"/>
     <sheet name="naca97-5deg" sheetId="7" r:id="rId3"/>
     <sheet name="naca97-8deg" sheetId="9" r:id="rId4"/>
-    <sheet name="naca97-10deg" sheetId="3" r:id="rId5"/>
-    <sheet name="naca97-12deg" sheetId="10" r:id="rId6"/>
-    <sheet name="naca97-15deg" sheetId="8" r:id="rId7"/>
-    <sheet name="naca97-20deg" sheetId="4" r:id="rId8"/>
-    <sheet name="naca97-30deg" sheetId="5" r:id="rId9"/>
-    <sheet name="calc" sheetId="6" r:id="rId10"/>
+    <sheet name="naca97-9deg" sheetId="11" r:id="rId5"/>
+    <sheet name="naca97-10deg" sheetId="3" r:id="rId6"/>
+    <sheet name="naca97-12deg" sheetId="10" r:id="rId7"/>
+    <sheet name="naca97-15deg" sheetId="8" r:id="rId8"/>
+    <sheet name="naca97-20deg" sheetId="4" r:id="rId9"/>
+    <sheet name="naca97-30deg" sheetId="5" r:id="rId10"/>
+    <sheet name="calc" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
   <si>
     <t>naca97</t>
     <phoneticPr fontId="1"/>
@@ -309,13 +310,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +669,9 @@
       <c r="E4" s="1">
         <v>-0.612487</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>-0.63784099999999999</v>
+      </c>
       <c r="G4" s="1">
         <v>-0.65106200000000003</v>
       </c>
@@ -699,7 +702,9 @@
       <c r="E5" s="1">
         <v>-4.64269</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>-4.6689400000000001</v>
+      </c>
       <c r="G5" s="1">
         <v>-4.7826899999999997</v>
       </c>
@@ -733,9 +738,9 @@
         <f t="shared" si="0"/>
         <v>7.5800629237845047</v>
       </c>
-      <c r="F6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3199120156904307</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -763,8 +768,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,6 +779,132 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.7644000000000002</v>
+      </c>
+      <c r="D3">
+        <v>-21.236899999999999</v>
+      </c>
+      <c r="E3">
+        <v>-45.665100000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.62004300000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.2169399999999995E-2</v>
+      </c>
+      <c r="H3">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-45.5929</v>
+      </c>
+      <c r="J3">
+        <v>-0.97788399999999998</v>
+      </c>
+      <c r="K3">
+        <v>-2.0398299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P107"/>
   <sheetViews>
@@ -4167,6 +4299,132 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.2010100000000001</v>
+      </c>
+      <c r="D3">
+        <v>-6.0567099999999998</v>
+      </c>
+      <c r="E3">
+        <v>-50.1798</v>
+      </c>
+      <c r="F3">
+        <v>-0.79196100000000003</v>
+      </c>
+      <c r="G3">
+        <v>4.8119700000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>-6.8486700000000003</v>
+      </c>
+      <c r="I3">
+        <v>-50.131700000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.63784099999999999</v>
+      </c>
+      <c r="K3">
+        <v>-4.6689400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
@@ -4286,132 +4544,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>-5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.2004199999999998</v>
-      </c>
-      <c r="D3">
-        <v>-7.8860900000000003</v>
-      </c>
-      <c r="E3">
-        <v>-57.124899999999997</v>
-      </c>
-      <c r="F3">
-        <v>-0.78408500000000003</v>
-      </c>
-      <c r="G3">
-        <v>5.6764700000000001E-2</v>
-      </c>
-      <c r="H3">
-        <v>-8.6701800000000002</v>
-      </c>
-      <c r="I3">
-        <v>-57.068199999999997</v>
-      </c>
-      <c r="J3">
-        <v>-0.70048699999999997</v>
-      </c>
-      <c r="K3">
-        <v>-4.61069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4473,31 +4605,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.2002299999999999</v>
+        <v>2.2004199999999998</v>
       </c>
       <c r="D3">
-        <v>-9.5853699999999993</v>
+        <v>-7.8860900000000003</v>
       </c>
       <c r="E3">
-        <v>-61.939500000000002</v>
+        <v>-57.124899999999997</v>
       </c>
       <c r="F3">
-        <v>-0.76220600000000005</v>
+        <v>-0.78408500000000003</v>
       </c>
       <c r="G3">
-        <v>6.0589200000000003E-2</v>
+        <v>5.6764700000000001E-2</v>
       </c>
       <c r="H3">
-        <v>-10.3476</v>
+        <v>-8.6701800000000002</v>
       </c>
       <c r="I3">
-        <v>-61.878900000000002</v>
+        <v>-57.068199999999997</v>
       </c>
       <c r="J3">
-        <v>-0.73846299999999998</v>
+        <v>-0.70048699999999997</v>
       </c>
       <c r="K3">
-        <v>-4.4160399999999997</v>
+        <v>-4.61069</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -4599,31 +4731,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7642899999999999</v>
+        <v>2.2002299999999999</v>
       </c>
       <c r="D3">
-        <v>-12.1792</v>
+        <v>-9.5853699999999993</v>
       </c>
       <c r="E3">
-        <v>-59.284100000000002</v>
+        <v>-61.939500000000002</v>
       </c>
       <c r="F3">
-        <v>-0.76737599999999995</v>
+        <v>-0.76220600000000005</v>
       </c>
       <c r="G3">
-        <v>6.1758199999999999E-2</v>
+        <v>6.0589200000000003E-2</v>
       </c>
       <c r="H3">
-        <v>-12.9465</v>
+        <v>-10.3476</v>
       </c>
       <c r="I3">
-        <v>-59.222299999999997</v>
+        <v>-61.878900000000002</v>
       </c>
       <c r="J3">
-        <v>-0.76434800000000003</v>
+        <v>-0.73846299999999998</v>
       </c>
       <c r="K3">
-        <v>-3.49641</v>
+        <v>-4.4160399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -4725,31 +4857,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.7644000000000002</v>
+        <v>2.7642899999999999</v>
       </c>
       <c r="D3">
-        <v>-21.236899999999999</v>
+        <v>-12.1792</v>
       </c>
       <c r="E3">
-        <v>-45.665100000000002</v>
+        <v>-59.284100000000002</v>
       </c>
       <c r="F3">
-        <v>-0.62004300000000001</v>
+        <v>-0.76737599999999995</v>
       </c>
       <c r="G3">
-        <v>7.2169399999999995E-2</v>
+        <v>6.1758199999999999E-2</v>
       </c>
       <c r="H3">
-        <v>-21.856999999999999</v>
+        <v>-12.9465</v>
       </c>
       <c r="I3">
-        <v>-45.5929</v>
+        <v>-59.222299999999997</v>
       </c>
       <c r="J3">
-        <v>-0.97788399999999998</v>
+        <v>-0.76434800000000003</v>
       </c>
       <c r="K3">
-        <v>-2.0398299999999998</v>
+        <v>-3.49641</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
